--- a/Tomato_Prices_September_2024.xlsx
+++ b/Tomato_Prices_September_2024.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NIMB\HND\ML\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370C9B3-9A12-445B-BB7A-152B32511C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -32,21 +38,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>2024-09-03</t>
-  </si>
-  <si>
-    <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
   </si>
   <si>
     <t>Colombo</t>
@@ -103,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,24 +147,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,14 +456,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,104 +493,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4">
         <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
       <c r="C5">
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45555</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>158.4</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>154.22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>155.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>156.58000000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>41922</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>157.76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>158.94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>160.12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>162.47999999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>163.66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>164.84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>166.02</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>167.2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45629</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>168.38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>169.56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45646</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>170.74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Tomato_Prices_September_2024.xlsx
+++ b/Tomato_Prices_September_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NIMB\HND\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370C9B3-9A12-445B-BB7A-152B32511C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138191D-7203-4D98-8A56-3F3E99D3DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>155.4</v>
+        <v>150.4</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -641,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>156.58000000000001</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>157.76</v>
+        <v>154.76</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>158.94</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>161.30000000000001</v>
+        <v>164.3</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>163.66</v>
+        <v>140.66</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>166.02</v>
+        <v>160.02000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>168.38</v>
+        <v>140.38</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>169.56</v>
+        <v>150.56</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -881,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>170.74</v>
+        <v>160.74</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
